--- a/Master-functional-testcases/ID-Authentication/TC_Auth_Master.xlsx
+++ b/Master-functional-testcases/ID-Authentication/TC_Auth_Master.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jane.rose\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit.B\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="287">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -737,6 +737,159 @@
   </si>
   <si>
     <t>IDA_Auth_60</t>
+  </si>
+  <si>
+    <t>IDA_Retry_01</t>
+  </si>
+  <si>
+    <t>Retry Mechanism</t>
+  </si>
+  <si>
+    <t>Verify credential_store_event table is created and validate the entries</t>
+  </si>
+  <si>
+    <t>Initial status of the event must be NEW and once its delivered it must be set to STORED</t>
+  </si>
+  <si>
+    <t>IDA_Retry_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring down IDA while credential is being issued and verify IDA receives the same once its up based on the retry configurations </t>
+  </si>
+  <si>
+    <t>IDA should receive the credentials</t>
+  </si>
+  <si>
+    <t>IDA_Retry_03</t>
+  </si>
+  <si>
+    <t>Bring down data share service and verify IDA is able to fetch the details once its up based on the re try configurations</t>
+  </si>
+  <si>
+    <t>IDA should be able to fetch the data from datashare once its available</t>
+  </si>
+  <si>
+    <t>IDA_Retry_04</t>
+  </si>
+  <si>
+    <t>Verify retry happens based on the configured interval and time limit</t>
+  </si>
+  <si>
+    <t>Retry should happen based on the configured interval and time limit</t>
+  </si>
+  <si>
+    <t>IDA_HotList_01</t>
+  </si>
+  <si>
+    <t>HotListing</t>
+  </si>
+  <si>
+    <t>Verify admin is able to hotlist a device for a specified period</t>
+  </si>
+  <si>
+    <t>Device should be hotlisted with an expiry</t>
+  </si>
+  <si>
+    <t>IDA_HotList_02</t>
+  </si>
+  <si>
+    <t>Verify admin is able to hotlist an UIN/VID for a specified period</t>
+  </si>
+  <si>
+    <t>UIN/VID should be hotlisted with an expiry</t>
+  </si>
+  <si>
+    <t>IDA_HotList_03</t>
+  </si>
+  <si>
+    <t>Verify admin is able to hotlist a partner for a specified period</t>
+  </si>
+  <si>
+    <t>Partner should be hotlisted with an expiry</t>
+  </si>
+  <si>
+    <t>IDA_HotList_04</t>
+  </si>
+  <si>
+    <t>Verify whether the device/UIN/VID/partner is reactivated after the blocked period.</t>
+  </si>
+  <si>
+    <t>Device/VID/Partner should get reactivated after the expiry and should be able to perform any operations/transactions.</t>
+  </si>
+  <si>
+    <t>IDA_HotList_05</t>
+  </si>
+  <si>
+    <t>Verify whether admin is able to update the expiry of the hotlist</t>
+  </si>
+  <si>
+    <t>Admin should be able to update the expiry</t>
+  </si>
+  <si>
+    <t>IDA_HotList_06</t>
+  </si>
+  <si>
+    <t>Verify whether the hotlisted device is blocked from doing any operations</t>
+  </si>
+  <si>
+    <t>The hotlisted device should be blocked from doing any operation</t>
+  </si>
+  <si>
+    <t>IDA_HotList_07</t>
+  </si>
+  <si>
+    <t>Verify whether the hotlisted UIN/VID is blocked from doing any transactions</t>
+  </si>
+  <si>
+    <t>The hotlisted UIN/VID should be blocked from doing any transaction.</t>
+  </si>
+  <si>
+    <t>IDA_HotList_08</t>
+  </si>
+  <si>
+    <t>Verify whether the hotlisted partner is blocked from doing any operations</t>
+  </si>
+  <si>
+    <t>The hotlisted partner should be blocked from doing any operation</t>
+  </si>
+  <si>
+    <t>IDA_KYC_01</t>
+  </si>
+  <si>
+    <t>KYC Thumbprint</t>
+  </si>
+  <si>
+    <t>Verify thumbprint is available in the OTP eKYC response</t>
+  </si>
+  <si>
+    <t>Thumprint should be available in the eKYC response</t>
+  </si>
+  <si>
+    <t>IDA_KYC_02</t>
+  </si>
+  <si>
+    <t>Verify thumbprint is available in the demo eKYC response</t>
+  </si>
+  <si>
+    <t>IDA_KYC_03</t>
+  </si>
+  <si>
+    <t>Verify thumbprint is available in the bio eKYC response</t>
+  </si>
+  <si>
+    <t>IDA_KYC_04</t>
+  </si>
+  <si>
+    <t>Verify thumbprint is available in the multifactor eKYC response</t>
+  </si>
+  <si>
+    <t>IDA_KYC_05</t>
+  </si>
+  <si>
+    <t>Validate the thumbprint</t>
+  </si>
+  <si>
+    <t>Thumbprint should be the hash of the partner certificate</t>
   </si>
 </sst>
 </file>
@@ -801,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -809,6 +962,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1093,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2946,6 +3117,395 @@
       </c>
       <c r="H81" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Master-functional-testcases/ID-Authentication/TC_Auth_Master.xlsx
+++ b/Master-functional-testcases/ID-Authentication/TC_Auth_Master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="288">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -890,13 +890,16 @@
   </si>
   <si>
     <t>Thumbprint should be the hash of the partner certificate</t>
+  </si>
+  <si>
+    <t>Add an attribute in the auth policy which is not there in data share and perform authentication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,6 +914,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -954,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -983,6 +992,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1264,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1289,7 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="64.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3505,6 +3517,29 @@
         <v>286</v>
       </c>
       <c r="G98" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F99" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3516,7 +3551,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D300">
       <formula1>"Acceptance, Functional, Smoke, Security, Performance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G61 G82:G300 G62:H81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G61 G62:H81 G82:G300">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B61">

--- a/Master-functional-testcases/ID-Authentication/TC_Auth_Master.xlsx
+++ b/Master-functional-testcases/ID-Authentication/TC_Auth_Master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="292">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -893,6 +893,18 @@
   </si>
   <si>
     <t>Add an attribute in the auth policy which is not there in data share and perform authentication</t>
+  </si>
+  <si>
+    <t>Story id</t>
+  </si>
+  <si>
+    <t>MOSIP-11464</t>
+  </si>
+  <si>
+    <t>MOSIP-11471</t>
+  </si>
+  <si>
+    <t>MOSIP-11728</t>
   </si>
 </sst>
 </file>
@@ -1276,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,9 +1302,11 @@
     <col min="5" max="5" width="64.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="79.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,8 +1328,12 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1338,7 +1356,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1361,7 +1379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1384,7 +1402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1407,7 +1425,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1430,7 +1448,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1453,7 +1471,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1476,7 +1494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1499,7 +1517,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1545,7 +1563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1568,7 +1586,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1591,7 +1609,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1614,7 +1632,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1637,7 +1655,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -3105,7 +3123,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>235</v>
       </c>
@@ -3131,7 +3149,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>236</v>
       </c>
@@ -3153,8 +3171,11 @@
       <c r="G82" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>240</v>
       </c>
@@ -3176,8 +3197,11 @@
       <c r="G83" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>243</v>
       </c>
@@ -3199,8 +3223,11 @@
       <c r="G84" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>246</v>
       </c>
@@ -3222,8 +3249,11 @@
       <c r="G85" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>249</v>
       </c>
@@ -3245,8 +3275,11 @@
       <c r="G86" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>253</v>
       </c>
@@ -3268,8 +3301,11 @@
       <c r="G87" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>256</v>
       </c>
@@ -3291,8 +3327,11 @@
       <c r="G88" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>259</v>
       </c>
@@ -3314,8 +3353,11 @@
       <c r="G89" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>262</v>
       </c>
@@ -3335,8 +3377,11 @@
         <v>264</v>
       </c>
       <c r="G90" s="7"/>
-    </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>265</v>
       </c>
@@ -3358,8 +3403,11 @@
       <c r="G91" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>268</v>
       </c>
@@ -3381,8 +3429,11 @@
       <c r="G92" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>271</v>
       </c>
@@ -3404,8 +3455,11 @@
       <c r="G93" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>274</v>
       </c>
@@ -3427,8 +3481,11 @@
       <c r="G94" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>278</v>
       </c>
@@ -3450,8 +3507,11 @@
       <c r="G95" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>280</v>
       </c>
@@ -3473,8 +3533,11 @@
       <c r="G96" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>282</v>
       </c>
@@ -3496,8 +3559,11 @@
       <c r="G97" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>284</v>
       </c>
@@ -3519,8 +3585,11 @@
       <c r="G98" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>53</v>
       </c>

--- a/Master-functional-testcases/ID-Authentication/TC_Auth_Master.xlsx
+++ b/Master-functional-testcases/ID-Authentication/TC_Auth_Master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="293">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -905,6 +905,9 @@
   </si>
   <si>
     <t>MOSIP-11728</t>
+  </si>
+  <si>
+    <t>Kyc response should not have an attribute which is not there in data share policy</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="D84" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,7 +3609,7 @@
         <v>287</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>73</v>

--- a/Master-functional-testcases/ID-Authentication/TC_Auth_Master.xlsx
+++ b/Master-functional-testcases/ID-Authentication/TC_Auth_Master.xlsx
@@ -907,7 +907,7 @@
     <t>MOSIP-11728</t>
   </si>
   <si>
-    <t>Kyc response should not have an attribute which is not there in data share policy</t>
+    <t>KYC response should not have an attribute not there in data share policy</t>
   </si>
 </sst>
 </file>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D84" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="E84" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
